--- a/3_Results/32_ResultsVMMC/vmmc_individual_interaction.xlsx
+++ b/3_Results/32_ResultsVMMC/vmmc_individual_interaction.xlsx
@@ -456,7 +456,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Y1_ik ~ T_k + age + marital_status + education + monthly_income + alcohol_weekly + partners_12mos + prop_began_infected + prop_male + prop_vlsupp + T_k * age + T_k * monthly_income + T_k * prop_began_infected</t>
+          <t>Y1_ik ~ T_k + age + marital_status + education + alcohol_weekly + partners_12mos + prop_began_infected + prop_male + prop_vlsupp + monthly_income + T_k * age + T_k * monthly_income + T_k * education + T_k * prop_began_infected</t>
         </is>
       </c>
     </row>
@@ -468,7 +468,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Y1_ik ~ T_k + alcohol_weekly + partners_12mos + prop_began_infected + T_k:prop_began_infected</t>
+          <t>Y1_ik ~ T_k + age + marital_status + education + alcohol_weekly + partners_12mos + prop_began_infected + prop_male + prop_vlsupp</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Y1_ik ~ T_k + X1_ik + age + marital_status + education + monthly_income + alcohol_weekly + partners_12mos + prop_began_infected + prop_male + prop_vlsupp + T_k * age + T_k * monthly_income + T_k * prop_began_infected</t>
+          <t>Y1_ik ~ T_k + X1_ik + age + marital_status + education + alcohol_weekly + partners_12mos + prop_began_infected + prop_male + prop_vlsupp + monthly_income + T_k * age + T_k * monthly_income + T_k * education + T_k * prop_began_infected</t>
         </is>
       </c>
     </row>
@@ -492,7 +492,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Y1_ik ~ T_k + X1_ik + alcohol_weekly + partners_12mos + prop_began_infected + T_k:prop_began_infected</t>
+          <t>Y1_ik ~ T_k + X1_ik + age + marital_status + education + alcohol_weekly + partners_12mos + prop_began_infected + prop_male + prop_vlsupp</t>
         </is>
       </c>
     </row>
@@ -569,20 +569,20 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.78 (-1.27, 6.83)</t>
+          <t>-1.21 (-2.19, -0.24)</t>
         </is>
       </c>
       <c r="E2">
-        <v>0.18</v>
+        <v>0.01</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>4.27</v>
+        <v>0.25</v>
       </c>
       <c r="H2">
-        <v>2.07</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="3">
@@ -603,20 +603,20 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.88 (-1.25, 7)</t>
+          <t>-1.12 (-2.1, -0.14)</t>
         </is>
       </c>
       <c r="E3">
-        <v>0.17</v>
+        <v>0.03</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>4.43</v>
+        <v>0.25</v>
       </c>
       <c r="H3">
-        <v>2.1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="4">
@@ -668,7 +668,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>-0.1 (NA, NA)</t>
+          <t>-0.09 (NA, NA)</t>
         </is>
       </c>
     </row>
@@ -690,7 +690,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.09 (-1.04, 1.21)</t>
+          <t>0.08 (-1.04, 1.21)</t>
         </is>
       </c>
       <c r="E6">
@@ -721,7 +721,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>-0.03 (NA, NA)</t>
+          <t>0.08 (NA, NA)</t>
         </is>
       </c>
     </row>
@@ -798,20 +798,20 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>16.12 (0.28, 924.62)</t>
+          <t>0.3 (0.11, 0.79)</t>
         </is>
       </c>
       <c r="E2">
-        <v>0.18</v>
+        <v>0.01</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>4.27</v>
+        <v>0.25</v>
       </c>
       <c r="H2">
-        <v>2.07</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="3">
@@ -832,20 +832,20 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>17.74 (0.29, 1095.58)</t>
+          <t>0.33 (0.12, 0.87)</t>
         </is>
       </c>
       <c r="E3">
-        <v>0.17</v>
+        <v>0.03</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>4.43</v>
+        <v>0.25</v>
       </c>
       <c r="H3">
-        <v>2.1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="4">
@@ -919,7 +919,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.09 (-1.04, 1.21)</t>
+          <t>0.08 (-1.04, 1.21)</t>
         </is>
       </c>
       <c r="E6">
@@ -950,7 +950,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>-0.03 (NA, NA)</t>
+          <t>0.08 (NA, NA)</t>
         </is>
       </c>
     </row>
@@ -961,7 +961,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1017,20 +1017,20 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2.78 (-1.27, 6.83)</t>
+          <t>-1.21 (-2.19, -0.24)</t>
         </is>
       </c>
       <c r="D2">
-        <v>0.18</v>
+        <v>0.01</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>4.27</v>
+        <v>0.25</v>
       </c>
       <c r="G2">
-        <v>2.07</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="3">
@@ -1041,25 +1041,25 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>alcohol_weekly</t>
+          <t>age</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.16 (-0.09, 0.41)</t>
+          <t>0.02 (-0.03, 0.08)</t>
         </is>
       </c>
       <c r="D3">
-        <v>0.22</v>
+        <v>0.37</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0.13</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="4">
@@ -1070,25 +1070,25 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>partners_12mos</t>
+          <t>marital_statusMarried</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.42 (0.05, 0.79)</t>
+          <t>-0.05 (-24937.98, 24937.89)</t>
         </is>
       </c>
       <c r="D4">
-        <v>0.03</v>
+        <v>1</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.04</v>
+        <v>161891773.31</v>
       </c>
       <c r="G4">
-        <v>0.19</v>
+        <v>12723.67</v>
       </c>
     </row>
     <row r="5">
@@ -1099,25 +1099,25 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>prop_began_infected</t>
+          <t>marital_statusSingle/never married</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>10.42 (3.56, 17.28)</t>
+          <t>16.68 (-24338.73, 24372.09)</t>
         </is>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>12.25</v>
+        <v>154416867.08</v>
       </c>
       <c r="G5">
-        <v>3.5</v>
+        <v>12426.46</v>
       </c>
     </row>
     <row r="6">
@@ -1128,25 +1128,286 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>T_k:prop_began_infected</t>
+          <t>marital_statusWidowed</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-12.96 (-27.31, 1.38)</t>
+          <t>-0.29 (-52399.37, 52398.78)</t>
         </is>
       </c>
       <c r="D6">
-        <v>0.08</v>
+        <v>1</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>53.56</v>
+        <v>714744854.85</v>
       </c>
       <c r="G6">
-        <v>7.32</v>
+        <v>26734.71</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Total Effects Model</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>educationJunior secondary</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0.85 (-0.41, 2.1)</t>
+        </is>
+      </c>
+      <c r="D7">
+        <v>0.19</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0.41</v>
+      </c>
+      <c r="G7">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Total Effects Model</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>educationNon-formal</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0.91 (-0.98, 2.8)</t>
+        </is>
+      </c>
+      <c r="D8">
+        <v>0.35</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0.93</v>
+      </c>
+      <c r="G8">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Total Effects Model</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>educationPrimary</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>-0.64 (-2.95, 1.67)</t>
+        </is>
+      </c>
+      <c r="D9">
+        <v>0.59</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1.39</v>
+      </c>
+      <c r="G9">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Total Effects Model</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>educationSenior secondary</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0.05 (-1.48, 1.59)</t>
+        </is>
+      </c>
+      <c r="D10">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0.61</v>
+      </c>
+      <c r="G10">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Total Effects Model</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>alcohol_weekly</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0.13 (-0.12, 0.39)</t>
+        </is>
+      </c>
+      <c r="D11">
+        <v>0.31</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0.02</v>
+      </c>
+      <c r="G11">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Total Effects Model</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>partners_12mos</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0.43 (0.05, 0.8)</t>
+        </is>
+      </c>
+      <c r="D12">
+        <v>0.02</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0.04</v>
+      </c>
+      <c r="G12">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Total Effects Model</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>prop_began_infected</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>4.45 (-3.2, 12.11)</t>
+        </is>
+      </c>
+      <c r="D13">
+        <v>0.25</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>15.26</v>
+      </c>
+      <c r="G13">
+        <v>3.91</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Total Effects Model</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>prop_male</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>6.24 (-11.63, 24.1)</t>
+        </is>
+      </c>
+      <c r="D14">
+        <v>0.49</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>83.09</v>
+      </c>
+      <c r="G14">
+        <v>9.119999999999999</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Total Effects Model</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>prop_vlsupp</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>5.69 (-2.86, 14.25)</t>
+        </is>
+      </c>
+      <c r="D15">
+        <v>0.19</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>19.05</v>
+      </c>
+      <c r="G15">
+        <v>4.36</v>
       </c>
     </row>
   </sheetData>
@@ -1156,7 +1417,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1212,20 +1473,20 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>16.12 (0.28, 924.62)</t>
+          <t>0.3 (0.11, 0.79)</t>
         </is>
       </c>
       <c r="D2">
-        <v>0.18</v>
+        <v>0.01</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>4.27</v>
+        <v>0.25</v>
       </c>
       <c r="G2">
-        <v>2.07</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="3">
@@ -1236,25 +1497,25 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>alcohol_weekly</t>
+          <t>age</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1.17 (0.91, 1.5)</t>
+          <t>1.03 (0.97, 1.08)</t>
         </is>
       </c>
       <c r="D3">
-        <v>0.22</v>
+        <v>0.37</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0.13</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="4">
@@ -1265,25 +1526,25 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>partners_12mos</t>
+          <t>marital_statusMarried</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.52 (1.05, 2.2)</t>
+          <t>0.95 (0, Inf)</t>
         </is>
       </c>
       <c r="D4">
-        <v>0.03</v>
+        <v>1</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.04</v>
+        <v>161891773.31</v>
       </c>
       <c r="G4">
-        <v>0.19</v>
+        <v>12723.67</v>
       </c>
     </row>
     <row r="5">
@@ -1294,25 +1555,25 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>prop_began_infected</t>
+          <t>marital_statusSingle/never married</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>33571.25 (35.2, 32020724.35)</t>
+          <t>17501206.55 (0, Inf)</t>
         </is>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>12.25</v>
+        <v>154416867.08</v>
       </c>
       <c r="G5">
-        <v>3.5</v>
+        <v>12426.46</v>
       </c>
     </row>
     <row r="6">
@@ -1323,25 +1584,286 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>T_k:prop_began_infected</t>
+          <t>marital_statusWidowed</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0 (0, 3.97)</t>
+          <t>0.75 (0, Inf)</t>
         </is>
       </c>
       <c r="D6">
-        <v>0.08</v>
+        <v>1</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>53.56</v>
+        <v>714744854.85</v>
       </c>
       <c r="G6">
-        <v>7.32</v>
+        <v>26734.71</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Total Effects Model</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>educationJunior secondary</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2.33 (0.66, 8.2)</t>
+        </is>
+      </c>
+      <c r="D7">
+        <v>0.19</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0.41</v>
+      </c>
+      <c r="G7">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Total Effects Model</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>educationNon-formal</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2.48 (0.38, 16.42)</t>
+        </is>
+      </c>
+      <c r="D8">
+        <v>0.35</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0.93</v>
+      </c>
+      <c r="G8">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Total Effects Model</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>educationPrimary</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0.53 (0.05, 5.29)</t>
+        </is>
+      </c>
+      <c r="D9">
+        <v>0.59</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1.39</v>
+      </c>
+      <c r="G9">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Total Effects Model</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>educationSenior secondary</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1.06 (0.23, 4.88)</t>
+        </is>
+      </c>
+      <c r="D10">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0.61</v>
+      </c>
+      <c r="G10">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Total Effects Model</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>alcohol_weekly</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>1.14 (0.88, 1.48)</t>
+        </is>
+      </c>
+      <c r="D11">
+        <v>0.31</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0.02</v>
+      </c>
+      <c r="G11">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Total Effects Model</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>partners_12mos</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1.54 (1.06, 2.23)</t>
+        </is>
+      </c>
+      <c r="D12">
+        <v>0.02</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0.04</v>
+      </c>
+      <c r="G12">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Total Effects Model</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>prop_began_infected</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>85.89 (0.04, 181513.45)</t>
+        </is>
+      </c>
+      <c r="D13">
+        <v>0.25</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>15.26</v>
+      </c>
+      <c r="G13">
+        <v>3.91</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Total Effects Model</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>prop_male</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>511.65 (0, 29391387418.84)</t>
+        </is>
+      </c>
+      <c r="D14">
+        <v>0.49</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>83.09</v>
+      </c>
+      <c r="G14">
+        <v>9.119999999999999</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Total Effects Model</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>prop_vlsupp</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>296.86 (0.06, 1539655.13)</t>
+        </is>
+      </c>
+      <c r="D15">
+        <v>0.19</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>19.05</v>
+      </c>
+      <c r="G15">
+        <v>4.36</v>
       </c>
     </row>
   </sheetData>
@@ -1351,7 +1873,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1407,20 +1929,20 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2.88 (-1.25, 7)</t>
+          <t>-1.12 (-2.1, -0.14)</t>
         </is>
       </c>
       <c r="D2">
-        <v>0.17</v>
+        <v>0.03</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>4.43</v>
+        <v>0.25</v>
       </c>
       <c r="G2">
-        <v>2.1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="3">
@@ -1436,11 +1958,11 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-0.8 (-1.67, 0.06)</t>
+          <t>-0.84 (-1.71, 0.03)</t>
         </is>
       </c>
       <c r="D3">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1460,25 +1982,25 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>alcohol_weekly</t>
+          <t>age</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.14 (-0.11, 0.39)</t>
+          <t>0.02 (-0.03, 0.08)</t>
         </is>
       </c>
       <c r="D4">
-        <v>0.27</v>
+        <v>0.44</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0.13</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="5">
@@ -1489,25 +2011,25 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>partners_12mos</t>
+          <t>marital_statusMarried</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.41 (0.04, 0.78)</t>
+          <t>-13.92 (-5749421.72, 5749393.89)</t>
         </is>
       </c>
       <c r="D5">
-        <v>0.03</v>
+        <v>1</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.04</v>
+        <v>8604983589036.44</v>
       </c>
       <c r="G5">
-        <v>0.19</v>
+        <v>2933425.23</v>
       </c>
     </row>
     <row r="6">
@@ -1518,25 +2040,25 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>prop_began_infected</t>
+          <t>marital_statusSingle/never married</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>10.37 (3.5, 17.25)</t>
+          <t>16.77 (-23986.6, 24020.13)</t>
         </is>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>12.3</v>
+        <v>149985141.05</v>
       </c>
       <c r="G6">
-        <v>3.51</v>
+        <v>12246.84</v>
       </c>
     </row>
     <row r="7">
@@ -1547,25 +2069,286 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>T_k:prop_began_infected</t>
+          <t>marital_statusWidowed</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-12.97 (-27.6, 1.66)</t>
+          <t>-19.09 (-65765501.71, 65765463.54)</t>
         </is>
       </c>
       <c r="D7">
-        <v>0.08</v>
+        <v>1</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>55.72</v>
+        <v>1125900056827765</v>
       </c>
       <c r="G7">
-        <v>7.46</v>
+        <v>33554434.23</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Direct Effects Model</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>educationJunior secondary</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0.84 (-0.42, 2.1)</t>
+        </is>
+      </c>
+      <c r="D8">
+        <v>0.19</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0.41</v>
+      </c>
+      <c r="G8">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Direct Effects Model</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>educationNon-formal</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0.91 (-0.98, 2.8)</t>
+        </is>
+      </c>
+      <c r="D9">
+        <v>0.34</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0.93</v>
+      </c>
+      <c r="G9">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Direct Effects Model</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>educationPrimary</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>-0.69 (-3, 1.62)</t>
+        </is>
+      </c>
+      <c r="D10">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1.39</v>
+      </c>
+      <c r="G10">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Direct Effects Model</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>educationSenior secondary</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>-0.02 (-1.56, 1.51)</t>
+        </is>
+      </c>
+      <c r="D11">
+        <v>0.98</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0.61</v>
+      </c>
+      <c r="G11">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Direct Effects Model</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>alcohol_weekly</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0.12 (-0.13, 0.38)</t>
+        </is>
+      </c>
+      <c r="D12">
+        <v>0.35</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0.02</v>
+      </c>
+      <c r="G12">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Direct Effects Model</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>partners_12mos</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0.43 (0.05, 0.81)</t>
+        </is>
+      </c>
+      <c r="D13">
+        <v>0.03</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0.04</v>
+      </c>
+      <c r="G13">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Direct Effects Model</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>prop_began_infected</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>4.44 (-3.22, 12.1)</t>
+        </is>
+      </c>
+      <c r="D14">
+        <v>0.26</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>15.28</v>
+      </c>
+      <c r="G14">
+        <v>3.91</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Direct Effects Model</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>prop_male</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>6.51 (-11.32, 24.34)</t>
+        </is>
+      </c>
+      <c r="D15">
+        <v>0.47</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>82.78</v>
+      </c>
+      <c r="G15">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Direct Effects Model</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>prop_vlsupp</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>5.78 (-2.77, 14.32)</t>
+        </is>
+      </c>
+      <c r="D16">
+        <v>0.19</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>18.99</v>
+      </c>
+      <c r="G16">
+        <v>4.36</v>
       </c>
     </row>
   </sheetData>
@@ -1575,7 +2358,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1631,20 +2414,20 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>17.74 (0.29, 1095.58)</t>
+          <t>0.33 (0.12, 0.87)</t>
         </is>
       </c>
       <c r="D2">
-        <v>0.17</v>
+        <v>0.03</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>4.43</v>
+        <v>0.25</v>
       </c>
       <c r="G2">
-        <v>2.1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="3">
@@ -1660,11 +2443,11 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.45 (0.19, 1.07)</t>
+          <t>0.43 (0.18, 1.03)</t>
         </is>
       </c>
       <c r="D3">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1684,25 +2467,25 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>alcohol_weekly</t>
+          <t>age</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.15 (0.9, 1.48)</t>
+          <t>1.02 (0.97, 1.08)</t>
         </is>
       </c>
       <c r="D4">
-        <v>0.27</v>
+        <v>0.44</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0.13</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="5">
@@ -1713,25 +2496,25 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>partners_12mos</t>
+          <t>marital_statusMarried</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1.51 (1.04, 2.19)</t>
+          <t>0 (0, Inf)</t>
         </is>
       </c>
       <c r="D5">
-        <v>0.03</v>
+        <v>1</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.04</v>
+        <v>8604983589036.44</v>
       </c>
       <c r="G5">
-        <v>0.19</v>
+        <v>2933425.23</v>
       </c>
     </row>
     <row r="6">
@@ -1742,25 +2525,25 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>prop_began_infected</t>
+          <t>marital_statusSingle/never married</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>32032.87 (33.18, 30927468.75)</t>
+          <t>19104448.61 (0, Inf)</t>
         </is>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>12.3</v>
+        <v>149985141.05</v>
       </c>
       <c r="G6">
-        <v>3.51</v>
+        <v>12246.84</v>
       </c>
     </row>
     <row r="7">
@@ -1771,25 +2554,286 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>T_k:prop_began_infected</t>
+          <t>marital_statusWidowed</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0 (0, 5.27)</t>
+          <t>0 (0, Inf)</t>
         </is>
       </c>
       <c r="D7">
-        <v>0.08</v>
+        <v>1</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>55.72</v>
+        <v>1125900056827765</v>
       </c>
       <c r="G7">
-        <v>7.46</v>
+        <v>33554434.23</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Direct Effects Model</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>educationJunior secondary</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2.31 (0.66, 8.13)</t>
+        </is>
+      </c>
+      <c r="D8">
+        <v>0.19</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0.41</v>
+      </c>
+      <c r="G8">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Direct Effects Model</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>educationNon-formal</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2.49 (0.38, 16.52)</t>
+        </is>
+      </c>
+      <c r="D9">
+        <v>0.34</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0.93</v>
+      </c>
+      <c r="G9">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Direct Effects Model</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>educationPrimary</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0.5 (0.05, 5.08)</t>
+        </is>
+      </c>
+      <c r="D10">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1.39</v>
+      </c>
+      <c r="G10">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Direct Effects Model</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>educationSenior secondary</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0.98 (0.21, 4.53)</t>
+        </is>
+      </c>
+      <c r="D11">
+        <v>0.98</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0.61</v>
+      </c>
+      <c r="G11">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Direct Effects Model</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>alcohol_weekly</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1.13 (0.87, 1.46)</t>
+        </is>
+      </c>
+      <c r="D12">
+        <v>0.35</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0.02</v>
+      </c>
+      <c r="G12">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Direct Effects Model</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>partners_12mos</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>1.54 (1.05, 2.25)</t>
+        </is>
+      </c>
+      <c r="D13">
+        <v>0.03</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0.04</v>
+      </c>
+      <c r="G13">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Direct Effects Model</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>prop_began_infected</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>84.73 (0.04, 180058.84)</t>
+        </is>
+      </c>
+      <c r="D14">
+        <v>0.26</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>15.28</v>
+      </c>
+      <c r="G14">
+        <v>3.91</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Direct Effects Model</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>prop_male</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>672.77 (0, 37363370516.25)</t>
+        </is>
+      </c>
+      <c r="D15">
+        <v>0.47</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>82.78</v>
+      </c>
+      <c r="G15">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Direct Effects Model</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>prop_vlsupp</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>322.38 (0.06, 1652667.9)</t>
+        </is>
+      </c>
+      <c r="D16">
+        <v>0.19</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>18.99</v>
+      </c>
+      <c r="G16">
+        <v>4.36</v>
       </c>
     </row>
   </sheetData>
@@ -1799,7 +2843,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1847,12 +2891,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>marital_status</t>
+          <t>T_k:age</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>alcohol_weekly</t>
+          <t>age</t>
         </is>
       </c>
     </row>
@@ -1869,83 +2913,88 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>partners_12mos</t>
+          <t>marital_status</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>monthly_income</t>
+          <t>alcohol_weekly</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>prop_male</t>
+          <t>T_k:education</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>prop_began_infected</t>
+          <t>education</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>partners_12mos</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>T_k:prop_began_infected</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>alcohol_weekly</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>age</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>T_k:prop_began_infected</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>prop_began_infected</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>partners_12mos</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>T_k:age</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>prop_male</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>prop_began_infected</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>education</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>prop_vlsupp</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>prop_male</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>prop_vlsupp</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>monthly_income</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>prop_vlsupp</t>
         </is>
       </c>
@@ -1966,6 +3015,13 @@
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
+        <is>
+          <t>T_k*education</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>T_k*prop_began_infected</t>
         </is>
